--- a/excel-files/2024-03-01-2024-03-31-1.xlsx
+++ b/excel-files/2024-03-01-2024-03-31-1.xlsx
@@ -726,7 +726,7 @@
       </c>
       <c r="P10" s="6" t="inlineStr">
         <is>
-          <t>Ailə vəz ilə əlaqədar ak.məz.</t>
+          <t>Ailə vəz ilə əlaqədar ak.məz</t>
         </is>
       </c>
       <c r="Q10" s="6" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
@@ -1058,17 +1058,15 @@
       <c r="AB17" s="4" t="n"/>
       <c r="AC17" s="4" t="n"/>
       <c r="AD17" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE17" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AF17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG17" s="7" t="n">
         <v>6</v>
       </c>
+      <c r="AG17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n"/>
@@ -1116,7 +1114,7 @@
         <v>95</v>
       </c>
       <c r="AG18" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1127,7 +1125,7 @@
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
@@ -1156,13 +1154,13 @@
       <c r="AB19" s="4" t="n"/>
       <c r="AC19" s="4" t="n"/>
       <c r="AD19" s="7" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AE19" s="7" t="n">
         <v>178</v>
       </c>
       <c r="AF19" s="7" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG19" s="4" t="n"/>
     </row>
@@ -1212,7 +1210,7 @@
         <v>247</v>
       </c>
       <c r="AG20" s="7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1225,7 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
@@ -1256,17 +1254,15 @@
       <c r="AB21" s="4" t="n"/>
       <c r="AC21" s="4" t="n"/>
       <c r="AD21" s="7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AE21" s="7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AF21" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG21" s="7" t="n">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AG21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n"/>
@@ -1325,7 +1321,7 @@
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D23" s="4" t="n"/>
       <c r="E23" s="4" t="n"/>
@@ -1354,13 +1350,13 @@
       <c r="AB23" s="4" t="n"/>
       <c r="AC23" s="4" t="n"/>
       <c r="AD23" s="7" t="n">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AE23" s="7" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF23" s="7" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG23" s="4" t="n"/>
     </row>
@@ -1372,7 +1368,7 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="4" t="n"/>
@@ -1401,16 +1397,16 @@
       <c r="AB24" s="4" t="n"/>
       <c r="AC24" s="4" t="n"/>
       <c r="AD24" s="7" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF24" s="7" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG24" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1462,9 +1458,7 @@
       <c r="AF25" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="AG25" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="AG25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n"/>
@@ -1523,7 +1517,7 @@
         </is>
       </c>
       <c r="C27" s="7" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
@@ -1552,10 +1546,10 @@
       <c r="AB27" s="4" t="n"/>
       <c r="AC27" s="4" t="n"/>
       <c r="AD27" s="7" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE27" s="7" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF27" s="7" t="n">
         <v>104</v>
@@ -1570,7 +1564,7 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="4" t="n"/>
@@ -1599,16 +1593,16 @@
       <c r="AB28" s="4" t="n"/>
       <c r="AC28" s="4" t="n"/>
       <c r="AD28" s="7" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AE28" s="7" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" s="7" t="n">
         <v>156</v>
       </c>
       <c r="AG28" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1631,9 +1625,7 @@
       <c r="G29" s="4" t="n"/>
       <c r="H29" s="4" t="n"/>
       <c r="I29" s="4" t="n"/>
-      <c r="J29" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" s="4" t="n"/>
       <c r="K29" s="4" t="n"/>
       <c r="L29" s="4" t="n"/>
       <c r="M29" s="4" t="n"/>
@@ -1663,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="AG29" s="7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1723,7 +1715,7 @@
         </is>
       </c>
       <c r="C31" s="7" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -1735,7 +1727,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="4" t="n"/>
-      <c r="L31" s="4" t="n"/>
+      <c r="L31" s="7">
+        <f>SUM(D31:K31)</f>
+        <v/>
+      </c>
       <c r="M31" s="4" t="n"/>
       <c r="N31" s="4" t="n"/>
       <c r="O31" s="4" t="n"/>
@@ -1754,13 +1749,13 @@
       <c r="AB31" s="4" t="n"/>
       <c r="AC31" s="4" t="n"/>
       <c r="AD31" s="7" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE31" s="7" t="n">
         <v>138</v>
       </c>
       <c r="AF31" s="7" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG31" s="4" t="n"/>
     </row>
@@ -1772,7 +1767,7 @@
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -1781,10 +1776,13 @@
       <c r="H32" s="4" t="n"/>
       <c r="I32" s="4" t="n"/>
       <c r="J32" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" s="4" t="n"/>
-      <c r="L32" s="4" t="n"/>
+      <c r="L32" s="7">
+        <f>SUM(D32:K32)</f>
+        <v/>
+      </c>
       <c r="M32" s="4" t="n"/>
       <c r="N32" s="4" t="n"/>
       <c r="O32" s="4" t="n"/>
@@ -1803,16 +1801,16 @@
       <c r="AB32" s="4" t="n"/>
       <c r="AC32" s="4" t="n"/>
       <c r="AD32" s="7" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE32" s="7" t="n">
         <v>174</v>
       </c>
       <c r="AF32" s="7" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG32" s="7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1835,9 +1833,7 @@
       <c r="G33" s="4" t="n"/>
       <c r="H33" s="4" t="n"/>
       <c r="I33" s="4" t="n"/>
-      <c r="J33" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="J33" s="4" t="n"/>
       <c r="K33" s="4" t="n"/>
       <c r="L33" s="4" t="n"/>
       <c r="M33" s="4" t="n"/>
@@ -1866,9 +1862,7 @@
       <c r="AF33" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="AG33" s="7" t="n">
-        <v>15</v>
-      </c>
+      <c r="AG33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n"/>
@@ -1915,9 +1909,7 @@
       <c r="AF34" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="AG34" s="7" t="n">
-        <v>8</v>
-      </c>
+      <c r="AG34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n"/>
@@ -1939,7 +1931,10 @@
         <v>2</v>
       </c>
       <c r="K35" s="4" t="n"/>
-      <c r="L35" s="4" t="n"/>
+      <c r="L35" s="7">
+        <f>SUM(D35:K35)</f>
+        <v/>
+      </c>
       <c r="M35" s="4" t="n"/>
       <c r="N35" s="4" t="n"/>
       <c r="O35" s="4" t="n"/>
@@ -1985,10 +1980,13 @@
       <c r="H36" s="4" t="n"/>
       <c r="I36" s="4" t="n"/>
       <c r="J36" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K36" s="4" t="n"/>
-      <c r="L36" s="4" t="n"/>
+      <c r="L36" s="7">
+        <f>SUM(D36:K36)</f>
+        <v/>
+      </c>
       <c r="M36" s="4" t="n"/>
       <c r="N36" s="4" t="n"/>
       <c r="O36" s="4" t="n"/>
@@ -2015,9 +2013,7 @@
       <c r="AF36" s="7" t="n">
         <v>82</v>
       </c>
-      <c r="AG36" s="7" t="n">
-        <v>23</v>
-      </c>
+      <c r="AG36" s="4" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="7" t="inlineStr">
@@ -2043,7 +2039,10 @@
         <v>1</v>
       </c>
       <c r="K37" s="4" t="n"/>
-      <c r="L37" s="4" t="n"/>
+      <c r="L37" s="7">
+        <f>SUM(D37:K37)</f>
+        <v/>
+      </c>
       <c r="M37" s="4" t="n"/>
       <c r="N37" s="4" t="n"/>
       <c r="O37" s="4" t="n"/>
@@ -2070,9 +2069,7 @@
       <c r="AF37" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="AG37" s="7" t="n">
-        <v>7</v>
-      </c>
+      <c r="AG37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n"/>
@@ -2129,7 +2126,7 @@
         </is>
       </c>
       <c r="C39" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -2176,7 +2173,7 @@
         </is>
       </c>
       <c r="C40" s="7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -2188,7 +2185,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="n"/>
-      <c r="L40" s="4" t="n"/>
+      <c r="L40" s="7">
+        <f>SUM(D40:K40)</f>
+        <v/>
+      </c>
       <c r="M40" s="4" t="n"/>
       <c r="N40" s="4" t="n"/>
       <c r="O40" s="4" t="n"/>
@@ -2215,9 +2215,7 @@
       <c r="AF40" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="AG40" s="7" t="n">
-        <v>7</v>
-      </c>
+      <c r="AG40" s="4" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="inlineStr">
@@ -2231,7 +2229,7 @@
         </is>
       </c>
       <c r="C41" s="7" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -2240,10 +2238,13 @@
       <c r="H41" s="4" t="n"/>
       <c r="I41" s="4" t="n"/>
       <c r="J41" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n"/>
-      <c r="L41" s="4" t="n"/>
+      <c r="L41" s="7">
+        <f>SUM(D41:K41)</f>
+        <v/>
+      </c>
       <c r="M41" s="4" t="n"/>
       <c r="N41" s="4" t="n"/>
       <c r="O41" s="4" t="n"/>
@@ -2262,16 +2263,16 @@
       <c r="AB41" s="4" t="n"/>
       <c r="AC41" s="4" t="n"/>
       <c r="AD41" s="7" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AE41" s="7" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AF41" s="7" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG41" s="7" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2320,7 +2321,7 @@
         <v>179</v>
       </c>
       <c r="AG42" s="7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -2331,7 +2332,7 @@
         </is>
       </c>
       <c r="C43" s="7" t="n">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -2343,7 +2344,10 @@
         <v>3</v>
       </c>
       <c r="K43" s="4" t="n"/>
-      <c r="L43" s="4" t="n"/>
+      <c r="L43" s="7">
+        <f>SUM(D43:K43)</f>
+        <v/>
+      </c>
       <c r="M43" s="4" t="n"/>
       <c r="N43" s="4" t="n"/>
       <c r="O43" s="4" t="n"/>
@@ -2362,13 +2366,13 @@
       <c r="AB43" s="4" t="n"/>
       <c r="AC43" s="4" t="n"/>
       <c r="AD43" s="7" t="n">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="AE43" s="7" t="n">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AF43" s="7" t="n">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AG43" s="4" t="n"/>
     </row>
@@ -2380,7 +2384,7 @@
         </is>
       </c>
       <c r="C44" s="7" t="n">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -2389,10 +2393,13 @@
       <c r="H44" s="4" t="n"/>
       <c r="I44" s="4" t="n"/>
       <c r="J44" s="7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K44" s="4" t="n"/>
-      <c r="L44" s="4" t="n"/>
+      <c r="L44" s="7">
+        <f>SUM(D44:K44)</f>
+        <v/>
+      </c>
       <c r="M44" s="4" t="n"/>
       <c r="N44" s="4" t="n"/>
       <c r="O44" s="4" t="n"/>
@@ -2411,16 +2418,16 @@
       <c r="AB44" s="4" t="n"/>
       <c r="AC44" s="4" t="n"/>
       <c r="AD44" s="7" t="n">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="AE44" s="7" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="AF44" s="7" t="n">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="AG44" s="7" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
